--- a/CLUELayoutForTests.xlsx
+++ b/CLUELayoutForTests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="40">
   <si>
     <t>B</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>X = Closet</t>
+  </si>
+  <si>
+    <t>Number of doors: 16</t>
+  </si>
+  <si>
+    <t>Orange: adjacency list tests, inside room</t>
+  </si>
+  <si>
+    <t>Purple: adjacency list tests, room exits</t>
+  </si>
+  <si>
+    <t>Green: adjacency lists beside room entrance</t>
+  </si>
+  <si>
+    <t>Light Purple: walkway scenarios</t>
+  </si>
+  <si>
+    <t>Light Blue: test targets</t>
   </si>
 </sst>
 </file>
@@ -225,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -282,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +608,7 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1098,7 @@
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
@@ -1089,10 +1110,10 @@
       <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="M7" t="s">
@@ -1255,7 +1276,7 @@
       <c r="P9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -2439,7 +2460,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="C33" s="18" t="s">
         <v>33</v>
@@ -2453,49 +2474,127 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -2655,17 +2754,23 @@
       <c r="A100" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="C38:M38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
     <mergeCell ref="C29:K29"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="C31:K31"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="C33:K33"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
